--- a/0. Nomina/2. Descuentos - Retardos/0. Formato - Retardos.xlsx
+++ b/0. Nomina/2. Descuentos - Retardos/0. Formato - Retardos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Retardos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055AC62D-09D3-4A73-9214-E45BAAB7DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB4A96-40B3-43C8-90CA-F3EE26FF65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FEA9F4EF-C237-4344-8D76-DA654B147599}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Elvis Molina</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Olga Arango</t>
-  </si>
-  <si>
-    <t>Paola Pinzon</t>
   </si>
   <si>
     <t>Profesional</t>
@@ -107,8 +104,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[=1]&quot;❎&quot;;[=0]&quot;✅&quot;;0"/>
+  <numFmts count="31">
+    <numFmt numFmtId="169" formatCode="[=1]&quot;01&quot;;General"/>
+    <numFmt numFmtId="170" formatCode="[=1]&quot;02&quot;;General"/>
+    <numFmt numFmtId="171" formatCode="[=1]&quot;03&quot;;General"/>
+    <numFmt numFmtId="172" formatCode="[=1]&quot;05&quot;;General"/>
+    <numFmt numFmtId="173" formatCode="[=1]&quot;06&quot;;General"/>
+    <numFmt numFmtId="174" formatCode="[=1]&quot;04&quot;;General"/>
+    <numFmt numFmtId="175" formatCode="[=1]&quot;07&quot;;General"/>
+    <numFmt numFmtId="176" formatCode="[=1]&quot;08&quot;;General"/>
+    <numFmt numFmtId="177" formatCode="[=1]&quot;09&quot;;General"/>
+    <numFmt numFmtId="178" formatCode="[=1]&quot;10&quot;;General"/>
+    <numFmt numFmtId="179" formatCode="[=1]&quot;11&quot;;General"/>
+    <numFmt numFmtId="180" formatCode="[=1]&quot;12&quot;;General"/>
+    <numFmt numFmtId="181" formatCode="[=1]&quot;13&quot;;General"/>
+    <numFmt numFmtId="182" formatCode="[=1]&quot;14&quot;;General"/>
+    <numFmt numFmtId="183" formatCode="[=1]&quot;15&quot;;General"/>
+    <numFmt numFmtId="184" formatCode="[=1]&quot;16&quot;;General"/>
+    <numFmt numFmtId="185" formatCode="[=1]&quot;17&quot;;General"/>
+    <numFmt numFmtId="186" formatCode="[=1]&quot;18&quot;;General"/>
+    <numFmt numFmtId="187" formatCode="[=1]&quot;19&quot;;General"/>
+    <numFmt numFmtId="188" formatCode="[=1]&quot;20&quot;;General"/>
+    <numFmt numFmtId="189" formatCode="[=1]&quot;21&quot;;General"/>
+    <numFmt numFmtId="190" formatCode="[=1]&quot;22&quot;;General"/>
+    <numFmt numFmtId="191" formatCode="[=1]&quot;23&quot;;General"/>
+    <numFmt numFmtId="192" formatCode="[=1]&quot;24&quot;;General"/>
+    <numFmt numFmtId="193" formatCode="[=1]&quot;25&quot;;General"/>
+    <numFmt numFmtId="194" formatCode="[=1]&quot;26&quot;;General"/>
+    <numFmt numFmtId="195" formatCode="[=1]&quot;27&quot;;General"/>
+    <numFmt numFmtId="196" formatCode="[=1]&quot;28&quot;;General"/>
+    <numFmt numFmtId="197" formatCode="[=1]&quot;29&quot;;General"/>
+    <numFmt numFmtId="198" formatCode="[=1]&quot;30&quot;;General"/>
+    <numFmt numFmtId="199" formatCode="[=1]&quot;31&quot;;General"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -192,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -279,52 +306,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -378,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -394,33 +380,141 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="188" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="189" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="190" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="191" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="193" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="194" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="198" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="199" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,18 +830,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB9AAF-F9C8-433A-828A-83DBC5154AE3}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="33" width="5.140625" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="33" width="5.140625" customWidth="1"/>
+    <col min="34" max="34" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="0" hidden="1" customWidth="1"/>
     <col min="37" max="16384" width="11.42578125" hidden="1"/>
@@ -793,7 +890,7 @@
     <row r="2" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -885,11 +982,11 @@
       <c r="AF2" s="4">
         <v>30</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="12" t="s">
-        <v>9</v>
+      <c r="AH2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="AI2" s="2"/>
     </row>
@@ -898,39 +995,39 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="13">
-        <f t="shared" ref="AH3:AH10" si="0">+SUM(C3:AG3)</f>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="9">
+        <f t="shared" ref="AH3:AH11" si="0">+SUM(C3:AG3)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="2"/>
@@ -940,38 +1037,38 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="13">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -982,38 +1079,38 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="13">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1024,38 +1121,38 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="13">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1066,38 +1163,38 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="13">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1105,41 +1202,39 @@
     </row>
     <row r="8" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="13">
+      <c r="B8" s="5"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1148,40 +1243,40 @@
     <row r="9" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1190,127 +1285,167 @@
     <row r="10" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="13">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="14">
-        <f t="shared" ref="AH11" si="1">+SUM(C11:AG11)</f>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="10">
+        <f t="shared" ref="AH12" si="1">+SUM(C12:AG12)</f>
+        <v>0</v>
+      </c>
       <c r="AI12" s="2"/>
     </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SwEPmVRkTbs26JbfhsAKXh/t0r5O3/MrOTj9a8SFfYQP/5SwwiUg+S8jqTn5+YfgEH13T0Y1SZ6Nnf7TY4wHmA==" saltValue="v+j0sMSgrvo36u+FddfLRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="C3:AG11">
+  <sheetProtection algorithmName="SHA-512" hashValue="4y206n4Kr64XuIpPW0n3tB0GIZXq6JHE3uXZO/IZ4FMl8lL/8YJm7bK2NGbS9X2Jt7Jltn0KKj0umDD2UkN5pw==" saltValue="YIjvOp+27dkl2yg13y2YwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C3:AG12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1323,7 +1458,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de digitación" error="Solo puedes ingresar &quot;1&quot; si llegó tarde ❎ o &quot;VACÍO&quot; si llegó a tiempo ⏰." sqref="C3:AG11" xr:uid="{D2C0F2A3-CDC0-41E4-AC52-EFA73A6A13A4}">
+    <dataValidation type="whole" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de digitación" error="Solo puedes ingresar &quot;1&quot; si llegó tarde ❎ o &quot;VACÍO&quot; si llegó a tiempo ⏰." sqref="C3:AG12" xr:uid="{D2C0F2A3-CDC0-41E4-AC52-EFA73A6A13A4}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>

--- a/0. Nomina/2. Descuentos - Retardos/0. Formato - Retardos.xlsx
+++ b/0. Nomina/2. Descuentos - Retardos/0. Formato - Retardos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Retardos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB4A96-40B3-43C8-90CA-F3EE26FF65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D04459-07B6-4347-A433-6F05D225527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FEA9F4EF-C237-4344-8D76-DA654B147599}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>Partícipes ForEver</t>
+    <t>Partícipes FOREVER</t>
   </si>
 </sst>
 </file>
@@ -105,37 +105,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="31">
-    <numFmt numFmtId="169" formatCode="[=1]&quot;01&quot;;General"/>
-    <numFmt numFmtId="170" formatCode="[=1]&quot;02&quot;;General"/>
-    <numFmt numFmtId="171" formatCode="[=1]&quot;03&quot;;General"/>
-    <numFmt numFmtId="172" formatCode="[=1]&quot;05&quot;;General"/>
-    <numFmt numFmtId="173" formatCode="[=1]&quot;06&quot;;General"/>
-    <numFmt numFmtId="174" formatCode="[=1]&quot;04&quot;;General"/>
-    <numFmt numFmtId="175" formatCode="[=1]&quot;07&quot;;General"/>
-    <numFmt numFmtId="176" formatCode="[=1]&quot;08&quot;;General"/>
-    <numFmt numFmtId="177" formatCode="[=1]&quot;09&quot;;General"/>
-    <numFmt numFmtId="178" formatCode="[=1]&quot;10&quot;;General"/>
-    <numFmt numFmtId="179" formatCode="[=1]&quot;11&quot;;General"/>
-    <numFmt numFmtId="180" formatCode="[=1]&quot;12&quot;;General"/>
-    <numFmt numFmtId="181" formatCode="[=1]&quot;13&quot;;General"/>
-    <numFmt numFmtId="182" formatCode="[=1]&quot;14&quot;;General"/>
-    <numFmt numFmtId="183" formatCode="[=1]&quot;15&quot;;General"/>
-    <numFmt numFmtId="184" formatCode="[=1]&quot;16&quot;;General"/>
-    <numFmt numFmtId="185" formatCode="[=1]&quot;17&quot;;General"/>
-    <numFmt numFmtId="186" formatCode="[=1]&quot;18&quot;;General"/>
-    <numFmt numFmtId="187" formatCode="[=1]&quot;19&quot;;General"/>
-    <numFmt numFmtId="188" formatCode="[=1]&quot;20&quot;;General"/>
-    <numFmt numFmtId="189" formatCode="[=1]&quot;21&quot;;General"/>
-    <numFmt numFmtId="190" formatCode="[=1]&quot;22&quot;;General"/>
-    <numFmt numFmtId="191" formatCode="[=1]&quot;23&quot;;General"/>
-    <numFmt numFmtId="192" formatCode="[=1]&quot;24&quot;;General"/>
-    <numFmt numFmtId="193" formatCode="[=1]&quot;25&quot;;General"/>
-    <numFmt numFmtId="194" formatCode="[=1]&quot;26&quot;;General"/>
-    <numFmt numFmtId="195" formatCode="[=1]&quot;27&quot;;General"/>
-    <numFmt numFmtId="196" formatCode="[=1]&quot;28&quot;;General"/>
-    <numFmt numFmtId="197" formatCode="[=1]&quot;29&quot;;General"/>
-    <numFmt numFmtId="198" formatCode="[=1]&quot;30&quot;;General"/>
-    <numFmt numFmtId="199" formatCode="[=1]&quot;31&quot;;General"/>
+    <numFmt numFmtId="164" formatCode="[=1]&quot;01&quot;;General"/>
+    <numFmt numFmtId="165" formatCode="[=1]&quot;02&quot;;General"/>
+    <numFmt numFmtId="166" formatCode="[=1]&quot;03&quot;;General"/>
+    <numFmt numFmtId="167" formatCode="[=1]&quot;05&quot;;General"/>
+    <numFmt numFmtId="168" formatCode="[=1]&quot;06&quot;;General"/>
+    <numFmt numFmtId="169" formatCode="[=1]&quot;04&quot;;General"/>
+    <numFmt numFmtId="170" formatCode="[=1]&quot;07&quot;;General"/>
+    <numFmt numFmtId="171" formatCode="[=1]&quot;08&quot;;General"/>
+    <numFmt numFmtId="172" formatCode="[=1]&quot;09&quot;;General"/>
+    <numFmt numFmtId="173" formatCode="[=1]&quot;10&quot;;General"/>
+    <numFmt numFmtId="174" formatCode="[=1]&quot;11&quot;;General"/>
+    <numFmt numFmtId="175" formatCode="[=1]&quot;12&quot;;General"/>
+    <numFmt numFmtId="176" formatCode="[=1]&quot;13&quot;;General"/>
+    <numFmt numFmtId="177" formatCode="[=1]&quot;14&quot;;General"/>
+    <numFmt numFmtId="178" formatCode="[=1]&quot;15&quot;;General"/>
+    <numFmt numFmtId="179" formatCode="[=1]&quot;16&quot;;General"/>
+    <numFmt numFmtId="180" formatCode="[=1]&quot;17&quot;;General"/>
+    <numFmt numFmtId="181" formatCode="[=1]&quot;18&quot;;General"/>
+    <numFmt numFmtId="182" formatCode="[=1]&quot;19&quot;;General"/>
+    <numFmt numFmtId="183" formatCode="[=1]&quot;20&quot;;General"/>
+    <numFmt numFmtId="184" formatCode="[=1]&quot;21&quot;;General"/>
+    <numFmt numFmtId="185" formatCode="[=1]&quot;22&quot;;General"/>
+    <numFmt numFmtId="186" formatCode="[=1]&quot;23&quot;;General"/>
+    <numFmt numFmtId="187" formatCode="[=1]&quot;24&quot;;General"/>
+    <numFmt numFmtId="188" formatCode="[=1]&quot;25&quot;;General"/>
+    <numFmt numFmtId="189" formatCode="[=1]&quot;26&quot;;General"/>
+    <numFmt numFmtId="190" formatCode="[=1]&quot;27&quot;;General"/>
+    <numFmt numFmtId="191" formatCode="[=1]&quot;28&quot;;General"/>
+    <numFmt numFmtId="192" formatCode="[=1]&quot;29&quot;;General"/>
+    <numFmt numFmtId="193" formatCode="[=1]&quot;30&quot;;General"/>
+    <numFmt numFmtId="194" formatCode="[=1]&quot;31&quot;;General"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -392,6 +392,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -493,26 +513,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="194" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="197" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="198" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="199" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -832,9 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB9AAF-F9C8-433A-828A-83DBC5154AE3}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1444,7 +1442,7 @@
       <c r="AI13" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4y206n4Kr64XuIpPW0n3tB0GIZXq6JHE3uXZO/IZ4FMl8lL/8YJm7bK2NGbS9X2Jt7Jltn0KKj0umDD2UkN5pw==" saltValue="YIjvOp+27dkl2yg13y2YwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kIl1eT4p7u9oAHiqIi6pyUn5m33pODQl6CvTOwCupDcFYOZ/TdlOamSLmRN8qTqPz+JxXv/VXDfbuGgKwsptsw==" saltValue="+Zf5RFtZI2lC9CKCikk/vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C3:AG12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
